--- a/Code/Results/Cases/Case_3_155/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_155/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.02404421734101</v>
+        <v>1.046916387279797</v>
       </c>
       <c r="D2">
-        <v>1.038770841126776</v>
+        <v>1.049188941271164</v>
       </c>
       <c r="E2">
-        <v>1.026652799533889</v>
+        <v>1.044417284361406</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.057241392120429</v>
+        <v>1.045312376455398</v>
       </c>
       <c r="J2">
-        <v>1.045528805871193</v>
+        <v>1.051968233168832</v>
       </c>
       <c r="K2">
-        <v>1.049715222303093</v>
+        <v>1.051946693467375</v>
       </c>
       <c r="L2">
-        <v>1.037752898227266</v>
+        <v>1.047188393011649</v>
       </c>
       <c r="N2">
-        <v>1.04701357669936</v>
+        <v>1.053462148722375</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.029988791493242</v>
+        <v>1.048096346228673</v>
       </c>
       <c r="D3">
-        <v>1.043426281663246</v>
+        <v>1.050117321147743</v>
       </c>
       <c r="E3">
-        <v>1.031579382447517</v>
+        <v>1.04543235793806</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.059673433826025</v>
+        <v>1.045706705812828</v>
       </c>
       <c r="J3">
-        <v>1.049694025524544</v>
+        <v>1.052795319690578</v>
       </c>
       <c r="K3">
-        <v>1.053532104854823</v>
+        <v>1.052686969253199</v>
       </c>
       <c r="L3">
-        <v>1.04182353517547</v>
+        <v>1.048014168458733</v>
       </c>
       <c r="N3">
-        <v>1.051184711442377</v>
+        <v>1.05429040980185</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.033736326133934</v>
+        <v>1.048859269755589</v>
       </c>
       <c r="D4">
-        <v>1.046362880666381</v>
+        <v>1.050717447142533</v>
       </c>
       <c r="E4">
-        <v>1.034689762601471</v>
+        <v>1.046088855880957</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.061194755405673</v>
+        <v>1.045960212026384</v>
       </c>
       <c r="J4">
-        <v>1.052314724670245</v>
+        <v>1.053329378647749</v>
       </c>
       <c r="K4">
-        <v>1.055932183687242</v>
+        <v>1.053164753955934</v>
       </c>
       <c r="L4">
-        <v>1.04438679183564</v>
+        <v>1.048547571809431</v>
       </c>
       <c r="N4">
-        <v>1.053809132281463</v>
+        <v>1.054825227183997</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.03528915610359</v>
+        <v>1.049179863834313</v>
       </c>
       <c r="D5">
-        <v>1.047580045672416</v>
+        <v>1.050969597854218</v>
       </c>
       <c r="E5">
-        <v>1.035979626570115</v>
+        <v>1.046364771524173</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.061822237929273</v>
+        <v>1.046066391334883</v>
       </c>
       <c r="J5">
-        <v>1.053399368781339</v>
+        <v>1.053553629730595</v>
       </c>
       <c r="K5">
-        <v>1.056925158856306</v>
+        <v>1.053365322730137</v>
       </c>
       <c r="L5">
-        <v>1.04544815382774</v>
+        <v>1.048771593370726</v>
       </c>
       <c r="N5">
-        <v>1.054895316711605</v>
+        <v>1.055049796729102</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.035548585566514</v>
+        <v>1.049233684899248</v>
       </c>
       <c r="D6">
-        <v>1.047783415001558</v>
+        <v>1.051011926751517</v>
       </c>
       <c r="E6">
-        <v>1.036195182469205</v>
+        <v>1.046411094545305</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.061926899287289</v>
+        <v>1.046084196180017</v>
       </c>
       <c r="J6">
-        <v>1.053580503062428</v>
+        <v>1.053591266832612</v>
       </c>
       <c r="K6">
-        <v>1.057090963065025</v>
+        <v>1.053398982018768</v>
       </c>
       <c r="L6">
-        <v>1.0456254288446</v>
+        <v>1.048809194636744</v>
       </c>
       <c r="N6">
-        <v>1.055076708224149</v>
+        <v>1.055087487280121</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.033757162698375</v>
+        <v>1.048863554092938</v>
       </c>
       <c r="D7">
-        <v>1.046379211810122</v>
+        <v>1.050720816950574</v>
       </c>
       <c r="E7">
-        <v>1.03470706651014</v>
+        <v>1.046092542976873</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.061203186745663</v>
+        <v>1.045961632349663</v>
       </c>
       <c r="J7">
-        <v>1.052329283987474</v>
+        <v>1.053332376150588</v>
       </c>
       <c r="K7">
-        <v>1.055945513957766</v>
+        <v>1.053167435111587</v>
       </c>
       <c r="L7">
-        <v>1.044401036692548</v>
+        <v>1.048550566064325</v>
       </c>
       <c r="N7">
-        <v>1.053823712274591</v>
+        <v>1.054828228943634</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.026074379180313</v>
+        <v>1.047315283049164</v>
       </c>
       <c r="D8">
-        <v>1.040360334757738</v>
+        <v>1.049502815916767</v>
       </c>
       <c r="E8">
-        <v>1.02833429699651</v>
+        <v>1.044760400690652</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.058074440945537</v>
+        <v>1.045445984177344</v>
       </c>
       <c r="J8">
-        <v>1.046952338671686</v>
+        <v>1.052247983800745</v>
       </c>
       <c r="K8">
-        <v>1.051020004013086</v>
+        <v>1.052197126974428</v>
       </c>
       <c r="L8">
-        <v>1.039143667273179</v>
+        <v>1.047467660620645</v>
       </c>
       <c r="N8">
-        <v>1.048439131079712</v>
+        <v>1.053742296632273</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.011726088587044</v>
+        <v>1.044582432421752</v>
       </c>
       <c r="D9">
-        <v>1.029136905501521</v>
+        <v>1.047351923730888</v>
       </c>
       <c r="E9">
-        <v>1.016472558541335</v>
+        <v>1.042410474658602</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052137844441585</v>
+        <v>1.044524671996638</v>
       </c>
       <c r="J9">
-        <v>1.036871456844068</v>
+        <v>1.050328506074231</v>
       </c>
       <c r="K9">
-        <v>1.041774305079559</v>
+        <v>1.050477909390457</v>
       </c>
       <c r="L9">
-        <v>1.029303916072875</v>
+        <v>1.045552281478167</v>
       </c>
       <c r="N9">
-        <v>1.038343933243605</v>
+        <v>1.05182009302722</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.001536111010915</v>
+        <v>1.042757311877228</v>
       </c>
       <c r="D10">
-        <v>1.021182970638756</v>
+        <v>1.045914831617628</v>
       </c>
       <c r="E10">
-        <v>1.008080237853199</v>
+        <v>1.040842088437882</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047861438681859</v>
+        <v>1.043901902190833</v>
       </c>
       <c r="J10">
-        <v>1.029688915197918</v>
+        <v>1.049042970396319</v>
       </c>
       <c r="K10">
-        <v>1.035180010607692</v>
+        <v>1.049325375710372</v>
       </c>
       <c r="L10">
-        <v>1.022305117758145</v>
+        <v>1.044270475540751</v>
       </c>
       <c r="N10">
-        <v>1.031151191564468</v>
+        <v>1.050532731741193</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9969555132250284</v>
+        <v>1.041966221505792</v>
       </c>
       <c r="D11">
-        <v>1.01761273977975</v>
+        <v>1.045291790456245</v>
       </c>
       <c r="E11">
-        <v>1.004316393113314</v>
+        <v>1.040162523076452</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04592554719032</v>
+        <v>1.043630195791059</v>
       </c>
       <c r="J11">
-        <v>1.026455497179687</v>
+        <v>1.048484906242944</v>
       </c>
       <c r="K11">
-        <v>1.032209977509916</v>
+        <v>1.048824786171443</v>
       </c>
       <c r="L11">
-        <v>1.019157365088861</v>
+        <v>1.043714263749633</v>
       </c>
       <c r="N11">
-        <v>1.027913181721773</v>
+        <v>1.049973875072709</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9952268751449402</v>
+        <v>1.041672252331425</v>
       </c>
       <c r="D12">
-        <v>1.016266295400471</v>
+        <v>1.045060248113455</v>
       </c>
       <c r="E12">
-        <v>1.002897392211757</v>
+        <v>1.039910033981728</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045193007045357</v>
+        <v>1.043528964109461</v>
       </c>
       <c r="J12">
-        <v>1.025234624986931</v>
+        <v>1.048277401617213</v>
       </c>
       <c r="K12">
-        <v>1.031088356031472</v>
+        <v>1.048638612989452</v>
       </c>
       <c r="L12">
-        <v>1.017969292486233</v>
+        <v>1.043507482908065</v>
       </c>
       <c r="N12">
-        <v>1.026690575750467</v>
+        <v>1.049766075766608</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9955989377145188</v>
+        <v>1.041735315324925</v>
       </c>
       <c r="D13">
-        <v>1.016556054182935</v>
+        <v>1.045109920052814</v>
       </c>
       <c r="E13">
-        <v>1.003202744767825</v>
+        <v>1.039964196864231</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04535076267392</v>
+        <v>1.043550692593036</v>
       </c>
       <c r="J13">
-        <v>1.025497426313788</v>
+        <v>1.048321921807622</v>
       </c>
       <c r="K13">
-        <v>1.031329801601469</v>
+        <v>1.048678558286347</v>
       </c>
       <c r="L13">
-        <v>1.018225012774213</v>
+        <v>1.04355184622606</v>
       </c>
       <c r="N13">
-        <v>1.026953750285353</v>
+        <v>1.049810659180793</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9968131901319881</v>
+        <v>1.041941924446255</v>
       </c>
       <c r="D14">
-        <v>1.017501864716153</v>
+        <v>1.045272653490679</v>
       </c>
       <c r="E14">
-        <v>1.004199533986027</v>
+        <v>1.040141653650855</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045865274865758</v>
+        <v>1.043621834233445</v>
       </c>
       <c r="J14">
-        <v>1.026354992196892</v>
+        <v>1.048467758236018</v>
       </c>
       <c r="K14">
-        <v>1.032117646989824</v>
+        <v>1.04880940177742</v>
       </c>
       <c r="L14">
-        <v>1.019059550958056</v>
+        <v>1.043697174841531</v>
       </c>
       <c r="N14">
-        <v>1.027812534010375</v>
+        <v>1.049956702713647</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9975576661073704</v>
+        <v>1.042069206769174</v>
       </c>
       <c r="D15">
-        <v>1.01808187688691</v>
+        <v>1.045372903374428</v>
       </c>
       <c r="E15">
-        <v>1.004810868818995</v>
+        <v>1.040250981540894</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046180472898933</v>
+        <v>1.043665626129175</v>
       </c>
       <c r="J15">
-        <v>1.026880696930159</v>
+        <v>1.048557584368004</v>
       </c>
       <c r="K15">
-        <v>1.03260058615163</v>
+        <v>1.048889987996203</v>
       </c>
       <c r="L15">
-        <v>1.019571199375257</v>
+        <v>1.043786692830593</v>
       </c>
       <c r="N15">
-        <v>1.028338985304663</v>
+        <v>1.050046656409043</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.001836405484116</v>
+        <v>1.042809796836917</v>
       </c>
       <c r="D16">
-        <v>1.021417145329993</v>
+        <v>1.045956164456106</v>
       </c>
       <c r="E16">
-        <v>1.008327176364028</v>
+        <v>1.040887179467448</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047988075964316</v>
+        <v>1.043919891330561</v>
       </c>
       <c r="J16">
-        <v>1.029900799383728</v>
+        <v>1.049079977248626</v>
       </c>
       <c r="K16">
-        <v>1.035374607041497</v>
+        <v>1.049358565737295</v>
       </c>
       <c r="L16">
-        <v>1.022511450403437</v>
+        <v>1.04430736446503</v>
       </c>
       <c r="N16">
-        <v>1.031363376650126</v>
+        <v>1.050569791147475</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.004473999487328</v>
+        <v>1.043274133082852</v>
       </c>
       <c r="D17">
-        <v>1.023474589794189</v>
+        <v>1.046321821436319</v>
       </c>
       <c r="E17">
-        <v>1.0104971196738</v>
+        <v>1.041286129686416</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049098848585031</v>
+        <v>1.044078837583646</v>
       </c>
       <c r="J17">
-        <v>1.031761327577243</v>
+        <v>1.049407279538318</v>
       </c>
       <c r="K17">
-        <v>1.037083173709449</v>
+        <v>1.049652080304361</v>
       </c>
       <c r="L17">
-        <v>1.024323566084735</v>
+        <v>1.044633650661988</v>
       </c>
       <c r="N17">
-        <v>1.033226547007082</v>
+        <v>1.050897558243959</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.005996367313128</v>
+        <v>1.043544895440618</v>
       </c>
       <c r="D18">
-        <v>1.024662591300144</v>
+        <v>1.046535028686352</v>
       </c>
       <c r="E18">
-        <v>1.011750379276954</v>
+        <v>1.041518787890169</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049738680647974</v>
+        <v>1.044171351188778</v>
       </c>
       <c r="J18">
-        <v>1.032834737581925</v>
+        <v>1.049598052650107</v>
       </c>
       <c r="K18">
-        <v>1.038068775271459</v>
+        <v>1.049823134386895</v>
       </c>
       <c r="L18">
-        <v>1.025369322179984</v>
+        <v>1.044823854000785</v>
       </c>
       <c r="N18">
-        <v>1.034301481377091</v>
+        <v>1.051088602275449</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.00651278038856</v>
+        <v>1.043637205405675</v>
       </c>
       <c r="D19">
-        <v>1.025065660599353</v>
+        <v>1.046607714288736</v>
       </c>
       <c r="E19">
-        <v>1.012175640765908</v>
+        <v>1.041598111128498</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049955502756861</v>
+        <v>1.044202862540146</v>
       </c>
       <c r="J19">
-        <v>1.03319877801259</v>
+        <v>1.0496630781996</v>
       </c>
       <c r="K19">
-        <v>1.038403012450067</v>
+        <v>1.049881434345663</v>
       </c>
       <c r="L19">
-        <v>1.025724030654038</v>
+        <v>1.044888689153896</v>
       </c>
       <c r="N19">
-        <v>1.034666038786924</v>
+        <v>1.051153720168681</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.004192688765241</v>
+        <v>1.043224322195026</v>
       </c>
       <c r="D20">
-        <v>1.023255103392832</v>
+        <v>1.04628259759641</v>
       </c>
       <c r="E20">
-        <v>1.010265600993321</v>
+        <v>1.041243330533629</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048980512815382</v>
+        <v>1.044061804544283</v>
       </c>
       <c r="J20">
-        <v>1.031562940554333</v>
+        <v>1.049372177260097</v>
       </c>
       <c r="K20">
-        <v>1.036901004266011</v>
+        <v>1.049620604287828</v>
       </c>
       <c r="L20">
-        <v>1.024130312399077</v>
+        <v>1.044598655032032</v>
       </c>
       <c r="N20">
-        <v>1.033027878251843</v>
+        <v>1.050862406116478</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9964563903156933</v>
+        <v>1.041881086625802</v>
       </c>
       <c r="D21">
-        <v>1.017223919054194</v>
+        <v>1.045224735792766</v>
       </c>
       <c r="E21">
-        <v>1.003906594630551</v>
+        <v>1.040089398947347</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04571414248822</v>
+        <v>1.043600893298241</v>
       </c>
       <c r="J21">
-        <v>1.02610301917398</v>
+        <v>1.048424818983844</v>
       </c>
       <c r="K21">
-        <v>1.031886164790099</v>
+        <v>1.048770878043961</v>
       </c>
       <c r="L21">
-        <v>1.018814331436337</v>
+        <v>1.043654384140563</v>
       </c>
       <c r="N21">
-        <v>1.027560203156868</v>
+        <v>1.049913702482809</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.991433801885524</v>
+        <v>1.04103582823816</v>
       </c>
       <c r="D22">
-        <v>1.013313643101875</v>
+        <v>1.044558937845703</v>
       </c>
       <c r="E22">
-        <v>0.9997864627324177</v>
+        <v>1.03936348062564</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04358208173019</v>
+        <v>1.04330931866628</v>
       </c>
       <c r="J22">
-        <v>1.022554633314072</v>
+        <v>1.047827933950008</v>
       </c>
       <c r="K22">
-        <v>1.028625888861728</v>
+        <v>1.048235278833178</v>
       </c>
       <c r="L22">
-        <v>1.015362151024986</v>
+        <v>1.043059647053639</v>
       </c>
       <c r="N22">
-        <v>1.024006778182035</v>
+        <v>1.049315969803761</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9941120859531997</v>
+        <v>1.041483984153961</v>
       </c>
       <c r="D23">
-        <v>1.01539824924416</v>
+        <v>1.044911954665093</v>
       </c>
       <c r="E23">
-        <v>1.001982697457098</v>
+        <v>1.039748341706574</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04472005025226</v>
+        <v>1.043464057055191</v>
       </c>
       <c r="J23">
-        <v>1.024447121507376</v>
+        <v>1.048144472386899</v>
       </c>
       <c r="K23">
-        <v>1.030364818983704</v>
+        <v>1.048519337822411</v>
       </c>
       <c r="L23">
-        <v>1.017203075355033</v>
+        <v>1.043375027197302</v>
       </c>
       <c r="N23">
-        <v>1.025901953925643</v>
+        <v>1.04963295776154</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.00431985057149</v>
+        <v>1.043246829829434</v>
       </c>
       <c r="D24">
-        <v>1.02335431705314</v>
+        <v>1.0463003213909</v>
       </c>
       <c r="E24">
-        <v>1.010370252631751</v>
+        <v>1.04126266976055</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049034008511968</v>
+        <v>1.044069501650486</v>
       </c>
       <c r="J24">
-        <v>1.031652619493552</v>
+        <v>1.049388038891322</v>
       </c>
       <c r="K24">
-        <v>1.036983352628464</v>
+        <v>1.049634827402173</v>
       </c>
       <c r="L24">
-        <v>1.024217670003212</v>
+        <v>1.044614468402757</v>
       </c>
       <c r="N24">
-        <v>1.033117684545443</v>
+        <v>1.050878290273038</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.015539247439101</v>
+        <v>1.045289497983581</v>
       </c>
       <c r="D25">
-        <v>1.03211711270393</v>
+        <v>1.047908534263703</v>
       </c>
       <c r="E25">
-        <v>1.019619815920672</v>
+        <v>1.043018293206018</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053726084534922</v>
+        <v>1.0447643593684</v>
       </c>
       <c r="J25">
-        <v>1.039554736639539</v>
+        <v>1.05082576862994</v>
       </c>
       <c r="K25">
-        <v>1.04423650154789</v>
+        <v>1.050923489855245</v>
       </c>
       <c r="L25">
-        <v>1.031921007135195</v>
+        <v>1.04604830891084</v>
       </c>
       <c r="N25">
-        <v>1.041031023604162</v>
+        <v>1.052318061752795</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_155/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_155/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.046916387279797</v>
+        <v>1.024044217341008</v>
       </c>
       <c r="D2">
-        <v>1.049188941271164</v>
+        <v>1.038770841126774</v>
       </c>
       <c r="E2">
-        <v>1.044417284361406</v>
+        <v>1.026652799533888</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045312376455398</v>
+        <v>1.057241392120428</v>
       </c>
       <c r="J2">
-        <v>1.051968233168832</v>
+        <v>1.045528805871191</v>
       </c>
       <c r="K2">
-        <v>1.051946693467375</v>
+        <v>1.049715222303091</v>
       </c>
       <c r="L2">
-        <v>1.047188393011649</v>
+        <v>1.037752898227264</v>
       </c>
       <c r="N2">
-        <v>1.053462148722375</v>
+        <v>1.047013576699358</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.048096346228673</v>
+        <v>1.029988791493243</v>
       </c>
       <c r="D3">
-        <v>1.050117321147743</v>
+        <v>1.043426281663248</v>
       </c>
       <c r="E3">
-        <v>1.04543235793806</v>
+        <v>1.031579382447518</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045706705812828</v>
+        <v>1.059673433826026</v>
       </c>
       <c r="J3">
-        <v>1.052795319690578</v>
+        <v>1.049694025524546</v>
       </c>
       <c r="K3">
-        <v>1.052686969253199</v>
+        <v>1.053532104854824</v>
       </c>
       <c r="L3">
-        <v>1.048014168458733</v>
+        <v>1.041823535175471</v>
       </c>
       <c r="N3">
-        <v>1.05429040980185</v>
+        <v>1.051184711442378</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.048859269755589</v>
+        <v>1.033736326133936</v>
       </c>
       <c r="D4">
-        <v>1.050717447142533</v>
+        <v>1.046362880666383</v>
       </c>
       <c r="E4">
-        <v>1.046088855880957</v>
+        <v>1.034689762601473</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045960212026384</v>
+        <v>1.061194755405674</v>
       </c>
       <c r="J4">
-        <v>1.053329378647749</v>
+        <v>1.052314724670247</v>
       </c>
       <c r="K4">
-        <v>1.053164753955934</v>
+        <v>1.055932183687243</v>
       </c>
       <c r="L4">
-        <v>1.048547571809431</v>
+        <v>1.044386791835642</v>
       </c>
       <c r="N4">
-        <v>1.054825227183997</v>
+        <v>1.053809132281465</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.049179863834313</v>
+        <v>1.03528915610359</v>
       </c>
       <c r="D5">
-        <v>1.050969597854218</v>
+        <v>1.047580045672416</v>
       </c>
       <c r="E5">
-        <v>1.046364771524173</v>
+        <v>1.035979626570115</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046066391334883</v>
+        <v>1.061822237929273</v>
       </c>
       <c r="J5">
-        <v>1.053553629730595</v>
+        <v>1.053399368781339</v>
       </c>
       <c r="K5">
-        <v>1.053365322730137</v>
+        <v>1.056925158856306</v>
       </c>
       <c r="L5">
-        <v>1.048771593370726</v>
+        <v>1.04544815382774</v>
       </c>
       <c r="N5">
-        <v>1.055049796729102</v>
+        <v>1.054895316711605</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.049233684899248</v>
+        <v>1.035548585566516</v>
       </c>
       <c r="D6">
-        <v>1.051011926751517</v>
+        <v>1.04778341500156</v>
       </c>
       <c r="E6">
-        <v>1.046411094545305</v>
+        <v>1.036195182469206</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046084196180017</v>
+        <v>1.06192689928729</v>
       </c>
       <c r="J6">
-        <v>1.053591266832612</v>
+        <v>1.05358050306243</v>
       </c>
       <c r="K6">
-        <v>1.053398982018768</v>
+        <v>1.057090963065026</v>
       </c>
       <c r="L6">
-        <v>1.048809194636744</v>
+        <v>1.045625428844602</v>
       </c>
       <c r="N6">
-        <v>1.055087487280121</v>
+        <v>1.055076708224151</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.048863554092938</v>
+        <v>1.033757162698374</v>
       </c>
       <c r="D7">
-        <v>1.050720816950574</v>
+        <v>1.046379211810121</v>
       </c>
       <c r="E7">
-        <v>1.046092542976873</v>
+        <v>1.034707066510138</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045961632349663</v>
+        <v>1.061203186745662</v>
       </c>
       <c r="J7">
-        <v>1.053332376150588</v>
+        <v>1.052329283987472</v>
       </c>
       <c r="K7">
-        <v>1.053167435111587</v>
+        <v>1.055945513957765</v>
       </c>
       <c r="L7">
-        <v>1.048550566064325</v>
+        <v>1.044401036692546</v>
       </c>
       <c r="N7">
-        <v>1.054828228943634</v>
+        <v>1.053823712274591</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.047315283049164</v>
+        <v>1.026074379180315</v>
       </c>
       <c r="D8">
-        <v>1.049502815916767</v>
+        <v>1.04036033475774</v>
       </c>
       <c r="E8">
-        <v>1.044760400690652</v>
+        <v>1.028334296996511</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045445984177344</v>
+        <v>1.058074440945538</v>
       </c>
       <c r="J8">
-        <v>1.052247983800745</v>
+        <v>1.046952338671688</v>
       </c>
       <c r="K8">
-        <v>1.052197126974428</v>
+        <v>1.051020004013088</v>
       </c>
       <c r="L8">
-        <v>1.047467660620645</v>
+        <v>1.03914366727318</v>
       </c>
       <c r="N8">
-        <v>1.053742296632273</v>
+        <v>1.048439131079713</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.044582432421752</v>
+        <v>1.011726088587043</v>
       </c>
       <c r="D9">
-        <v>1.047351923730888</v>
+        <v>1.02913690550152</v>
       </c>
       <c r="E9">
-        <v>1.042410474658602</v>
+        <v>1.016472558541335</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044524671996638</v>
+        <v>1.052137844441585</v>
       </c>
       <c r="J9">
-        <v>1.050328506074231</v>
+        <v>1.036871456844067</v>
       </c>
       <c r="K9">
-        <v>1.050477909390457</v>
+        <v>1.041774305079559</v>
       </c>
       <c r="L9">
-        <v>1.045552281478167</v>
+        <v>1.029303916072875</v>
       </c>
       <c r="N9">
-        <v>1.05182009302722</v>
+        <v>1.038343933243604</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.042757311877228</v>
+        <v>1.001536111010916</v>
       </c>
       <c r="D10">
-        <v>1.045914831617628</v>
+        <v>1.021182970638757</v>
       </c>
       <c r="E10">
-        <v>1.040842088437882</v>
+        <v>1.0080802378532</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043901902190833</v>
+        <v>1.047861438681859</v>
       </c>
       <c r="J10">
-        <v>1.049042970396319</v>
+        <v>1.029688915197919</v>
       </c>
       <c r="K10">
-        <v>1.049325375710372</v>
+        <v>1.035180010607694</v>
       </c>
       <c r="L10">
-        <v>1.044270475540751</v>
+        <v>1.022305117758146</v>
       </c>
       <c r="N10">
-        <v>1.050532731741193</v>
+        <v>1.03115119156447</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.041966221505792</v>
+        <v>0.9969555132250281</v>
       </c>
       <c r="D11">
-        <v>1.045291790456245</v>
+        <v>1.017612739779749</v>
       </c>
       <c r="E11">
-        <v>1.040162523076452</v>
+        <v>1.004316393113313</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043630195791059</v>
+        <v>1.045925547190319</v>
       </c>
       <c r="J11">
-        <v>1.048484906242944</v>
+        <v>1.026455497179687</v>
       </c>
       <c r="K11">
-        <v>1.048824786171443</v>
+        <v>1.032209977509916</v>
       </c>
       <c r="L11">
-        <v>1.043714263749633</v>
+        <v>1.01915736508886</v>
       </c>
       <c r="N11">
-        <v>1.049973875072709</v>
+        <v>1.027913181721773</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.041672252331425</v>
+        <v>0.9952268751449402</v>
       </c>
       <c r="D12">
-        <v>1.045060248113455</v>
+        <v>1.016266295400471</v>
       </c>
       <c r="E12">
-        <v>1.039910033981728</v>
+        <v>1.002897392211757</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043528964109461</v>
+        <v>1.045193007045357</v>
       </c>
       <c r="J12">
-        <v>1.048277401617213</v>
+        <v>1.025234624986931</v>
       </c>
       <c r="K12">
-        <v>1.048638612989452</v>
+        <v>1.031088356031473</v>
       </c>
       <c r="L12">
-        <v>1.043507482908065</v>
+        <v>1.017969292486233</v>
       </c>
       <c r="N12">
-        <v>1.049766075766608</v>
+        <v>1.026690575750467</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.041735315324925</v>
+        <v>0.995598937714518</v>
       </c>
       <c r="D13">
-        <v>1.045109920052814</v>
+        <v>1.016556054182934</v>
       </c>
       <c r="E13">
-        <v>1.039964196864231</v>
+        <v>1.003202744767825</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043550692593036</v>
+        <v>1.04535076267392</v>
       </c>
       <c r="J13">
-        <v>1.048321921807622</v>
+        <v>1.025497426313787</v>
       </c>
       <c r="K13">
-        <v>1.048678558286347</v>
+        <v>1.031329801601469</v>
       </c>
       <c r="L13">
-        <v>1.04355184622606</v>
+        <v>1.018225012774212</v>
       </c>
       <c r="N13">
-        <v>1.049810659180793</v>
+        <v>1.026953750285352</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.041941924446255</v>
+        <v>0.9968131901319862</v>
       </c>
       <c r="D14">
-        <v>1.045272653490679</v>
+        <v>1.017501864716151</v>
       </c>
       <c r="E14">
-        <v>1.040141653650855</v>
+        <v>1.004199533986025</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043621834233445</v>
+        <v>1.045865274865757</v>
       </c>
       <c r="J14">
-        <v>1.048467758236018</v>
+        <v>1.02635499219689</v>
       </c>
       <c r="K14">
-        <v>1.04880940177742</v>
+        <v>1.032117646989823</v>
       </c>
       <c r="L14">
-        <v>1.043697174841531</v>
+        <v>1.019059550958054</v>
       </c>
       <c r="N14">
-        <v>1.049956702713647</v>
+        <v>1.027812534010373</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.042069206769174</v>
+        <v>0.9975576661073691</v>
       </c>
       <c r="D15">
-        <v>1.045372903374428</v>
+        <v>1.018081876886908</v>
       </c>
       <c r="E15">
-        <v>1.040250981540894</v>
+        <v>1.004810868818994</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043665626129175</v>
+        <v>1.046180472898932</v>
       </c>
       <c r="J15">
-        <v>1.048557584368004</v>
+        <v>1.026880696930158</v>
       </c>
       <c r="K15">
-        <v>1.048889987996203</v>
+        <v>1.032600586151629</v>
       </c>
       <c r="L15">
-        <v>1.043786692830593</v>
+        <v>1.019571199375256</v>
       </c>
       <c r="N15">
-        <v>1.050046656409043</v>
+        <v>1.028338985304661</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.042809796836917</v>
+        <v>1.001836405484114</v>
       </c>
       <c r="D16">
-        <v>1.045956164456106</v>
+        <v>1.021417145329991</v>
       </c>
       <c r="E16">
-        <v>1.040887179467448</v>
+        <v>1.008327176364026</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043919891330561</v>
+        <v>1.047988075964315</v>
       </c>
       <c r="J16">
-        <v>1.049079977248626</v>
+        <v>1.029900799383725</v>
       </c>
       <c r="K16">
-        <v>1.049358565737295</v>
+        <v>1.035374607041495</v>
       </c>
       <c r="L16">
-        <v>1.04430736446503</v>
+        <v>1.022511450403435</v>
       </c>
       <c r="N16">
-        <v>1.050569791147475</v>
+        <v>1.031363376650123</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.043274133082852</v>
+        <v>1.004473999487328</v>
       </c>
       <c r="D17">
-        <v>1.046321821436319</v>
+        <v>1.023474589794189</v>
       </c>
       <c r="E17">
-        <v>1.041286129686416</v>
+        <v>1.010497119673801</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044078837583646</v>
+        <v>1.049098848585031</v>
       </c>
       <c r="J17">
-        <v>1.049407279538318</v>
+        <v>1.031761327577243</v>
       </c>
       <c r="K17">
-        <v>1.049652080304361</v>
+        <v>1.037083173709449</v>
       </c>
       <c r="L17">
-        <v>1.044633650661988</v>
+        <v>1.024323566084735</v>
       </c>
       <c r="N17">
-        <v>1.050897558243959</v>
+        <v>1.033226547007081</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.043544895440618</v>
+        <v>1.005996367313126</v>
       </c>
       <c r="D18">
-        <v>1.046535028686352</v>
+        <v>1.024662591300142</v>
       </c>
       <c r="E18">
-        <v>1.041518787890169</v>
+        <v>1.011750379276952</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044171351188778</v>
+        <v>1.049738680647972</v>
       </c>
       <c r="J18">
-        <v>1.049598052650107</v>
+        <v>1.032834737581922</v>
       </c>
       <c r="K18">
-        <v>1.049823134386895</v>
+        <v>1.038068775271457</v>
       </c>
       <c r="L18">
-        <v>1.044823854000785</v>
+        <v>1.025369322179982</v>
       </c>
       <c r="N18">
-        <v>1.051088602275449</v>
+        <v>1.034301481377089</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.043637205405675</v>
+        <v>1.00651278038856</v>
       </c>
       <c r="D19">
-        <v>1.046607714288736</v>
+        <v>1.025065660599353</v>
       </c>
       <c r="E19">
-        <v>1.041598111128498</v>
+        <v>1.012175640765908</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044202862540146</v>
+        <v>1.049955502756861</v>
       </c>
       <c r="J19">
-        <v>1.0496630781996</v>
+        <v>1.03319877801259</v>
       </c>
       <c r="K19">
-        <v>1.049881434345663</v>
+        <v>1.038403012450067</v>
       </c>
       <c r="L19">
-        <v>1.044888689153896</v>
+        <v>1.025724030654037</v>
       </c>
       <c r="N19">
-        <v>1.051153720168681</v>
+        <v>1.034666038786924</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.043224322195026</v>
+        <v>1.004192688765242</v>
       </c>
       <c r="D20">
-        <v>1.04628259759641</v>
+        <v>1.023255103392832</v>
       </c>
       <c r="E20">
-        <v>1.041243330533629</v>
+        <v>1.010265600993322</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044061804544283</v>
+        <v>1.048980512815382</v>
       </c>
       <c r="J20">
-        <v>1.049372177260097</v>
+        <v>1.031562940554333</v>
       </c>
       <c r="K20">
-        <v>1.049620604287828</v>
+        <v>1.036901004266011</v>
       </c>
       <c r="L20">
-        <v>1.044598655032032</v>
+        <v>1.024130312399078</v>
       </c>
       <c r="N20">
-        <v>1.050862406116478</v>
+        <v>1.033027878251844</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.041881086625802</v>
+        <v>0.9964563903156924</v>
       </c>
       <c r="D21">
-        <v>1.045224735792766</v>
+        <v>1.017223919054193</v>
       </c>
       <c r="E21">
-        <v>1.040089398947347</v>
+        <v>1.003906594630551</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043600893298241</v>
+        <v>1.04571414248822</v>
       </c>
       <c r="J21">
-        <v>1.048424818983844</v>
+        <v>1.026103019173979</v>
       </c>
       <c r="K21">
-        <v>1.048770878043961</v>
+        <v>1.031886164790098</v>
       </c>
       <c r="L21">
-        <v>1.043654384140563</v>
+        <v>1.018814331436336</v>
       </c>
       <c r="N21">
-        <v>1.049913702482809</v>
+        <v>1.027560203156867</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.04103582823816</v>
+        <v>0.9914338018855254</v>
       </c>
       <c r="D22">
-        <v>1.044558937845703</v>
+        <v>1.013313643101876</v>
       </c>
       <c r="E22">
-        <v>1.03936348062564</v>
+        <v>0.9997864627324189</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04330931866628</v>
+        <v>1.043582081730191</v>
       </c>
       <c r="J22">
-        <v>1.047827933950008</v>
+        <v>1.022554633314074</v>
       </c>
       <c r="K22">
-        <v>1.048235278833178</v>
+        <v>1.02862588886173</v>
       </c>
       <c r="L22">
-        <v>1.043059647053639</v>
+        <v>1.015362151024987</v>
       </c>
       <c r="N22">
-        <v>1.049315969803761</v>
+        <v>1.024006778182036</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.041483984153961</v>
+        <v>0.9941120859531968</v>
       </c>
       <c r="D23">
-        <v>1.044911954665093</v>
+        <v>1.015398249244157</v>
       </c>
       <c r="E23">
-        <v>1.039748341706574</v>
+        <v>1.001982697457096</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043464057055191</v>
+        <v>1.044720050252259</v>
       </c>
       <c r="J23">
-        <v>1.048144472386899</v>
+        <v>1.024447121507373</v>
       </c>
       <c r="K23">
-        <v>1.048519337822411</v>
+        <v>1.030364818983701</v>
       </c>
       <c r="L23">
-        <v>1.043375027197302</v>
+        <v>1.017203075355031</v>
       </c>
       <c r="N23">
-        <v>1.04963295776154</v>
+        <v>1.025901953925641</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.043246829829434</v>
+        <v>1.004319850571489</v>
       </c>
       <c r="D24">
-        <v>1.0463003213909</v>
+        <v>1.023354317053139</v>
       </c>
       <c r="E24">
-        <v>1.04126266976055</v>
+        <v>1.010370252631749</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044069501650486</v>
+        <v>1.049034008511967</v>
       </c>
       <c r="J24">
-        <v>1.049388038891322</v>
+        <v>1.031652619493551</v>
       </c>
       <c r="K24">
-        <v>1.049634827402173</v>
+        <v>1.036983352628462</v>
       </c>
       <c r="L24">
-        <v>1.044614468402757</v>
+        <v>1.024217670003211</v>
       </c>
       <c r="N24">
-        <v>1.050878290273038</v>
+        <v>1.033117684545442</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.045289497983581</v>
+        <v>1.015539247439099</v>
       </c>
       <c r="D25">
-        <v>1.047908534263703</v>
+        <v>1.032117112703929</v>
       </c>
       <c r="E25">
-        <v>1.043018293206018</v>
+        <v>1.019619815920671</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.0447643593684</v>
+        <v>1.053726084534921</v>
       </c>
       <c r="J25">
-        <v>1.05082576862994</v>
+        <v>1.039554736639538</v>
       </c>
       <c r="K25">
-        <v>1.050923489855245</v>
+        <v>1.044236501547889</v>
       </c>
       <c r="L25">
-        <v>1.04604830891084</v>
+        <v>1.031921007135194</v>
       </c>
       <c r="N25">
-        <v>1.052318061752795</v>
+        <v>1.04103102360416</v>
       </c>
     </row>
   </sheetData>
